--- a/100_受講者/05_最上/銭湯記録アプリ開発/【基本設計ワーク】機能一覧.xlsx
+++ b/100_受講者/05_最上/銭湯記録アプリ開発/【基本設計ワーク】機能一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\work\銭湯記録アプリ開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79134F6E-E850-46FF-B1BA-29B600209C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874531B6-7517-4FB2-9301-19A420CB196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="198">
   <si>
     <t>No.</t>
   </si>
@@ -1792,4734 +1792,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4FB45B1-B14F-4282-B568-F7A96228A1B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334250" y="647700"/>
-          <a:ext cx="1244600" cy="279400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>銭湯情報マスタ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CAE55A-6EED-4D3F-A9C8-8FE4A4B21350}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="292100" y="1701800"/>
-          <a:ext cx="635000" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ユーザー</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="楕円 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DE5CC0-AF82-4DB2-A7C4-E653A40A6E1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4292600" y="1181100"/>
-          <a:ext cx="1327150" cy="679450"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>検索ワード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>受付</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="楕円 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C31018D-5C06-47EF-B21C-DAE5196D53D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7232650" y="1162050"/>
-          <a:ext cx="1428750" cy="711200"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>検索結果</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>データ作成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>482601</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685471C0-315A-4E9E-B6CB-D9D6606283F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="0"/>
-          <a:endCxn id="4" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2360613" y="-230187"/>
-          <a:ext cx="180975" cy="3683000"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0AC79D3-6F18-414E-9F41-CF6BA8BB04A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="6"/>
-          <a:endCxn id="5" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5619750" y="1511300"/>
-          <a:ext cx="1612900" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8D8A84-B661-4EF0-98DC-12B4A1D68358}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="844550" y="1200150"/>
-          <a:ext cx="2940050" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>検索窓にワードを入力、検索ボタンを押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55714DDB-6623-41DA-848D-4E082F0D3647}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5683250" y="1206500"/>
-          <a:ext cx="1365250" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>検索文字列データ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>120651</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107951</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="コネクタ: カギ線 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564A95D5-100A-4A12-9815-4FCA7BDE5188}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="4"/>
-          <a:endCxn id="3" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4211638" y="-1728787"/>
-          <a:ext cx="133350" cy="7337425"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 256522"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35124759-70FB-47AC-9934-FF9C41F5632C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7947025" y="927100"/>
-          <a:ext cx="9525" cy="234950"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="四角形: 角を丸くする 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B98C21-2568-4D18-84BE-02B423DE390C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="292100" y="1701800"/>
-          <a:ext cx="635000" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ユーザー</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="楕円 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9F8EEC-F102-4978-B772-1FA3D4141D09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4292600" y="1181100"/>
-          <a:ext cx="1327150" cy="679450"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>検索ワード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>受付</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="楕円 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{806372C2-57F6-478F-9AAD-1DA9F87A14E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7232650" y="1162050"/>
-          <a:ext cx="1428750" cy="711200"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>検索結果</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>データ作成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>482601</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="コネクタ: カギ線 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B894F3-5AB1-4D58-9B73-A9869B1BA0A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="0"/>
-          <a:endCxn id="13" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2360613" y="-230187"/>
-          <a:ext cx="180975" cy="3683000"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BA7A6C-8C42-4A18-A03E-884190102335}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="6"/>
-          <a:endCxn id="14" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5619750" y="1511300"/>
-          <a:ext cx="1612900" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A26A74-6AC2-44D7-871D-B5FA69FDE238}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="844550" y="1200150"/>
-          <a:ext cx="2940050" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>検索窓にワードを入力、検索ボタンを押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE68031-1D01-45A7-A3D2-FE4272C21299}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5683250" y="1206500"/>
-          <a:ext cx="1365250" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>検索文字列データ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="四角形: 角を丸くする 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B19FB0-4AFC-4DBE-9E51-63AE1F631EA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="292100" y="4476750"/>
-          <a:ext cx="635000" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ユーザー</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="楕円 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4858FF-4229-4621-8746-B1B54B7EA984}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4292600" y="3956050"/>
-          <a:ext cx="1327150" cy="679450"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>検索ワード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>受付</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="楕円 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B984C68-511F-4DB0-9D4C-B5B29198B390}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7232650" y="3937000"/>
-          <a:ext cx="1428750" cy="711200"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>検索結果</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>データ作成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>482601</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="コネクタ: カギ線 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10271A09-647D-496B-8FE0-B4988CD506EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="0"/>
-          <a:endCxn id="20" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2360613" y="2544763"/>
-          <a:ext cx="180975" cy="3683000"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4068CEA5-7016-4B96-9C42-8500AE868C7B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="6"/>
-          <a:endCxn id="21" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5619750" y="4286250"/>
-          <a:ext cx="1612900" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="テキスト ボックス 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65A7C1E-CB35-43C3-AC9F-3D56935446AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="844550" y="3975100"/>
-          <a:ext cx="2940050" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>条件を指定し、絞り込みボタンを押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>120651</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>107951</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="コネクタ: カギ線 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D965F3E-BE58-4AB0-A5F8-9945E41E91F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="4"/>
-          <a:endCxn id="19" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4211638" y="1046163"/>
-          <a:ext cx="133350" cy="7337425"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 256522"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0AD0C7-7E9C-4E9E-8D2B-10D87955D6BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="21" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7947025" y="3492500"/>
-          <a:ext cx="3175" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="四角形: 角を丸くする 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6EE27D0-3CB7-4FFE-84D3-FD0B9E8A4504}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="292100" y="4476750"/>
-          <a:ext cx="635000" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ユーザー</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="楕円 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7945360-FB28-425B-923F-A21DF815EC97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4292600" y="3956050"/>
-          <a:ext cx="1327150" cy="679450"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>絞り込み条件</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>受付</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="楕円 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E81CC1-E1A3-4C72-9766-3E4F8C598EC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7232650" y="3937000"/>
-          <a:ext cx="1428750" cy="711200"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>絞り込み結果</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>データ作成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>482601</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="コネクタ: カギ線 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DAB69C-2183-4910-942D-BBB2B1ABA1B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="0"/>
-          <a:endCxn id="28" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2360613" y="2544763"/>
-          <a:ext cx="180975" cy="3683000"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855975AA-63CC-439A-A7B9-0112AA8EA90D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="6"/>
-          <a:endCxn id="29" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5619750" y="4286250"/>
-          <a:ext cx="1612900" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A603848-4218-46F1-96A0-6E257A5E1F25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5651500" y="4006850"/>
-          <a:ext cx="1593850" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>絞り込み条件</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>データ</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>120651</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>107951</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="コネクタ: カギ線 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8CFCB7-AA30-4791-A308-3595140C3D26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="4"/>
-          <a:endCxn id="27" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4211638" y="1046163"/>
-          <a:ext cx="133350" cy="7337425"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 256522"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51AB64EF-77D4-46B9-A6FC-7C67B6C74979}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="29" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7947025" y="3492500"/>
-          <a:ext cx="3175" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B2C414-F98B-4D84-8D78-3DC258F11A65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7372350" y="3213100"/>
-          <a:ext cx="1244600" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>銭湯一覧</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9206396B-698A-473D-96F1-3CA1BF4FB30F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8693150" y="3213100"/>
-          <a:ext cx="1244600" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>評価マスタ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB79B3A-A9D7-43E2-A731-468B074A0890}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6686550" y="2901950"/>
-          <a:ext cx="1244600" cy="279400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>銭湯情報マスタ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F663FFA-BCAD-4AF9-B489-AE53CB430EF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7981950" y="2901950"/>
-          <a:ext cx="1244600" cy="273050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>地域マスタ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05675CD-ED9E-41A2-B79C-6AF3C58E28E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6076950" y="3213100"/>
-          <a:ext cx="1244600" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ジャンルマスタ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8CE8E2-5DE2-4F74-AEEE-19562B33B82E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="850900" y="2241550"/>
-          <a:ext cx="914400" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>データ表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="テキスト ボックス 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3D0EB4-7EA0-483B-8F13-6DACF3455727}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="977900" y="5022850"/>
-          <a:ext cx="914400" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>データ表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="四角形: 角を丸くする 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02362413-F079-4416-8EAD-40EED89907C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="292100" y="10172700"/>
-          <a:ext cx="635000" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ユーザー</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="テキスト ボックス 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDAFC2DA-9DEB-4D91-99EA-74478D62AF2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="844550" y="9671050"/>
-          <a:ext cx="2940050" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>リセットボタンを押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="四角形: 角を丸くする 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD007ABF-9D64-41B9-BE03-A81B43A17D52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="292100" y="10172700"/>
-          <a:ext cx="635000" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ユーザー</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="楕円 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7839AB1B-8021-4C81-9FA0-3C69ED748499}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4318000" y="9639300"/>
-          <a:ext cx="1327150" cy="679450"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>絞り込み条件</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>取得</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="楕円 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A3D8720-EB81-4A1E-934E-81D141AD8554}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7194550" y="9556750"/>
-          <a:ext cx="1612900" cy="793750"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>絞り込み条件を解除したデータ作成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>508001</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="コネクタ: カギ線 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7255E7D-6538-4F66-97C7-77AF098EA0FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="0"/>
-          <a:endCxn id="59" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2366963" y="8221663"/>
-          <a:ext cx="193675" cy="3708400"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311AB847-CEC4-43C2-9417-2A45907D132D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="59" idx="6"/>
-          <a:endCxn id="60" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5645150" y="9953625"/>
-          <a:ext cx="1549400" cy="25400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="テキスト ボックス 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9C2D6F-F53F-4BC4-A506-1D4443F8E01B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5651500" y="9702800"/>
-          <a:ext cx="1593850" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>絞り込み条件</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>データ</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="コネクタ: カギ線 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EAF0A6E-02EC-45B5-83B4-B8D1C36C5E56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="60" idx="4"/>
-          <a:endCxn id="58" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4241800" y="6718300"/>
-          <a:ext cx="127000" cy="7391400"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 280000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FFE8D0-9FD4-458C-9BB7-5BF939EE5C83}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="66" idx="2"/>
-          <a:endCxn id="60" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7994650" y="9194800"/>
-          <a:ext cx="6350" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="正方形/長方形 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202783A5-CA5A-471C-BC43-6B3FA6D8773C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7372350" y="8909050"/>
-          <a:ext cx="1244600" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>銭湯一覧</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD9C970-147F-4590-B9B7-6A1BB8B24144}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8693150" y="8909050"/>
-          <a:ext cx="1244600" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>評価マスタ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="正方形/長方形 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135B4EB7-EDD8-464E-B085-D1984986D37E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6686550" y="8597900"/>
-          <a:ext cx="1244600" cy="279400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>銭湯情報マスタ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="正方形/長方形 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3939ED63-40E5-4835-B729-F42A24C60C8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7981950" y="8597900"/>
-          <a:ext cx="1244600" cy="273050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>地域マスタ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="正方形/長方形 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38850AE-BCAA-4279-8BE9-4606B0C25BB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6076950" y="8909050"/>
-          <a:ext cx="1244600" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ジャンルマスタ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="テキスト ボックス 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB248DB-A325-4BCE-853E-A2AF26DE1983}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="977900" y="10718800"/>
-          <a:ext cx="914400" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>データ表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="テキスト ボックス 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77AC9B6-AEA9-4C83-8F7F-4EC8643729F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="977900" y="14503400"/>
-          <a:ext cx="2768600" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>削除ボタンを押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="四角形: 角を丸くする 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5FE92E-B992-4023-8C41-022E2CAC65A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="387350" y="15252700"/>
-          <a:ext cx="635000" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ユーザー</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="楕円 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47876184-6226-48CC-9089-E34E19392B5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3759200" y="14395450"/>
-          <a:ext cx="1428750" cy="717550"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>削除内容受付</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>558801</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="コネクタ: カギ線 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE0DBFE-A184-43E5-8EB9-D9D602A0CE9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="87" idx="0"/>
-          <a:endCxn id="88" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="1982788" y="13476288"/>
-          <a:ext cx="498475" cy="3054350"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="コネクタ: カギ線 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9638BDD5-2C64-4048-BD8C-C067D6E0DA52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="95" idx="2"/>
-          <a:endCxn id="87" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="3473450" y="12788900"/>
-          <a:ext cx="317500" cy="5854700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -72000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="正方形/長方形 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7BC7FD2-93EF-4EA6-8EA5-38D9D603CC7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5937250" y="15290800"/>
-          <a:ext cx="1244600" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>銭湯一覧</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="正方形/長方形 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0948C0-8F99-4425-9D98-EE16ECBEF916}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5930900" y="14960600"/>
-          <a:ext cx="1244600" cy="279400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>銭湯情報マスタ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="テキスト ボックス 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC003C5-DF21-46D1-B80D-DE2D66F41DA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1143000" y="16154400"/>
-          <a:ext cx="914400" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>データ削除</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="テキスト ボックス 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB23412D-7A2E-4AD5-87CC-0E5368B8562E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5397500" y="14503400"/>
-          <a:ext cx="1301750" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>削除データ</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="正方形/長方形 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8145406A-FCD6-43E5-9464-D2C2A220C1A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5937250" y="15601950"/>
-          <a:ext cx="1244600" cy="273050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>感想一覧</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="コネクタ: カギ線 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98E160B-BE58-4F30-88C5-3EF152F6AE1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="88" idx="6"/>
-          <a:endCxn id="92" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5187950" y="14754225"/>
-          <a:ext cx="1365250" cy="206375"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="正方形/長方形 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675B557B-253D-4473-A349-A102466E3FE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334250" y="311150"/>
-          <a:ext cx="1244600" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>銭湯一覧</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>65910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>366522</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="図 99">
+        <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306198E0-518C-7B36-F13C-ACB48620A010}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F075959-36F7-C4EA-D3ED-519CD20A1D13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6542,8 +1833,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="279400" y="5761860"/>
-          <a:ext cx="6686550" cy="4379089"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9662922" cy="11075670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6564,23 +1855,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>272144</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>31342</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>319313</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>273558</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>147066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="図 100">
+        <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ECB0109-9879-777F-6525-B37737F84B12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A832D4-F6B2-102F-24F4-65EA2D91DAE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6603,8 +1894,69 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="426358" y="13838056"/>
-          <a:ext cx="6732812" cy="4399144"/>
+          <a:off x="0" y="11442700"/>
+          <a:ext cx="6521958" cy="4299966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>225044</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>139192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9FCF03-98C8-642C-F270-E6D533F3656E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6350" y="16370300"/>
+          <a:ext cx="6467094" cy="2736342"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13484,7 +8836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4A404A-98AA-40C6-93BE-D33B48AB566B}">
-  <dimension ref="A1:P133"/>
+  <dimension ref="A1:A182"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -13494,64 +8846,41 @@
     <col min="2" max="16384" width="8.7265625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="57" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="58" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="58" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="57" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" s="58" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="12.5">
-      <c r="A73" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="F73"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="B75" s="58" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="57" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="B95" s="58" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="57" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="130" spans="2:16">
-      <c r="B130" s="58" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="133" spans="2:16" ht="12.5">
-      <c r="P133"/>
+    <row r="1" spans="1:1" ht="12.5">
+      <c r="A1"/>
+    </row>
+    <row r="2" spans="1:1" ht="12.5">
+      <c r="A2"/>
+    </row>
+    <row r="3" spans="1:1" ht="12.5">
+      <c r="A3"/>
+    </row>
+    <row r="30" spans="1:1" ht="12.5">
+      <c r="A30"/>
+    </row>
+    <row r="32" spans="1:1" ht="12.5">
+      <c r="A32"/>
+    </row>
+    <row r="39" spans="1:1" ht="12.5">
+      <c r="A39"/>
+    </row>
+    <row r="58" spans="1:1" ht="12.5">
+      <c r="A58"/>
+    </row>
+    <row r="70" spans="1:1" ht="12.5">
+      <c r="A70"/>
+    </row>
+    <row r="72" spans="1:1" ht="12.5">
+      <c r="A72"/>
+    </row>
+    <row r="107" spans="1:1" ht="12.5">
+      <c r="A107"/>
+    </row>
+    <row r="148" spans="1:1" ht="12.5">
+      <c r="A148"/>
+    </row>
+    <row r="182" spans="1:1" ht="12.5">
+      <c r="A182"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -13564,7 +8893,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98692880-D6B5-452D-B7E4-95EAF9839D38}">
   <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5"/>
   <cols>

--- a/100_受講者/05_最上/銭湯記録アプリ開発/【基本設計ワーク】機能一覧.xlsx
+++ b/100_受講者/05_最上/銭湯記録アプリ開発/【基本設計ワーク】機能一覧.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\work\銭湯記録アプリ開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874531B6-7517-4FB2-9301-19A420CB196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A102EF-79AA-4A8C-9436-F0A86061736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ロバストネス図" sheetId="5" r:id="rId1"/>
-    <sheet name="データーフロー図" sheetId="4" r:id="rId2"/>
-    <sheet name="DB" sheetId="3" r:id="rId3"/>
-    <sheet name="画面毎の操作詳細" sheetId="1" r:id="rId4"/>
-    <sheet name="機能設計" sheetId="2" r:id="rId5"/>
+    <sheet name="シーケンス図" sheetId="6" r:id="rId1"/>
+    <sheet name="ロバストネス図" sheetId="5" r:id="rId2"/>
+    <sheet name="データーフロー図" sheetId="4" r:id="rId3"/>
+    <sheet name="DB" sheetId="3" r:id="rId4"/>
+    <sheet name="画面毎の操作詳細" sheetId="1" r:id="rId5"/>
+    <sheet name="機能設計" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1677,6 +1678,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1698,22 +1723,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1758,15 +1768,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1796,21 +1797,87 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>366522</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>461486</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>123444</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
+        <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F075959-36F7-C4EA-D3ED-519CD20A1D13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBCDB53-5734-9F4D-D58A-485441C61A47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="158750"/>
+          <a:ext cx="5890736" cy="29650944"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>415072</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>15313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E9F5E8-966D-AC3C-869D-007745A8AB53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1901,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9662922" cy="11075670"/>
+          <a:ext cx="10293858" cy="11644884"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1857,21 +1924,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>273558</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>147066</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381617</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>104902</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A832D4-F6B2-102F-24F4-65EA2D91DAE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F203D419-A2D9-C039-BC73-A3ABE83B4925}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1894,8 +1961,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="11442700"/>
-          <a:ext cx="6521958" cy="4299966"/>
+          <a:off x="0" y="12065000"/>
+          <a:ext cx="7221474" cy="4930902"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1917,22 +1984,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>225044</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>139192</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409049</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>50872</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
+        <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9FCF03-98C8-642C-F270-E6D533F3656E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22FD4ED1-AF48-BBD7-253D-D936F92D82E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,8 +2022,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6350" y="16370300"/>
-          <a:ext cx="6467094" cy="2736342"/>
+          <a:off x="0" y="17326429"/>
+          <a:ext cx="7248906" cy="3552444"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1978,7 +2045,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8835,10 +8902,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76259783-F6A4-4E0E-9588-252ADB27AA7B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetData/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4A404A-98AA-40C6-93BE-D33B48AB566B}">
-  <dimension ref="A1:A182"/>
+  <dimension ref="A2:A183"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5"/>
   <cols>
@@ -8846,41 +8927,47 @@
     <col min="2" max="16384" width="8.7265625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.5">
-      <c r="A1"/>
-    </row>
     <row r="2" spans="1:1" ht="12.5">
       <c r="A2"/>
     </row>
     <row r="3" spans="1:1" ht="12.5">
       <c r="A3"/>
     </row>
-    <row r="30" spans="1:1" ht="12.5">
-      <c r="A30"/>
-    </row>
-    <row r="32" spans="1:1" ht="12.5">
-      <c r="A32"/>
-    </row>
-    <row r="39" spans="1:1" ht="12.5">
-      <c r="A39"/>
-    </row>
-    <row r="58" spans="1:1" ht="12.5">
-      <c r="A58"/>
-    </row>
-    <row r="70" spans="1:1" ht="12.5">
-      <c r="A70"/>
-    </row>
-    <row r="72" spans="1:1" ht="12.5">
-      <c r="A72"/>
-    </row>
-    <row r="107" spans="1:1" ht="12.5">
-      <c r="A107"/>
-    </row>
-    <row r="148" spans="1:1" ht="12.5">
-      <c r="A148"/>
-    </row>
-    <row r="182" spans="1:1" ht="12.5">
-      <c r="A182"/>
+    <row r="4" spans="1:1" ht="12.5">
+      <c r="A4"/>
+    </row>
+    <row r="31" spans="1:1" ht="12.5">
+      <c r="A31"/>
+    </row>
+    <row r="33" spans="1:1" ht="12.5">
+      <c r="A33"/>
+    </row>
+    <row r="40" spans="1:1" ht="12.5">
+      <c r="A40"/>
+    </row>
+    <row r="59" spans="1:1" ht="12.5">
+      <c r="A59"/>
+    </row>
+    <row r="71" spans="1:1" ht="12.5">
+      <c r="A71"/>
+    </row>
+    <row r="73" spans="1:1" ht="12.5">
+      <c r="A73"/>
+    </row>
+    <row r="84" spans="1:1" ht="12.5">
+      <c r="A84"/>
+    </row>
+    <row r="108" spans="1:1" ht="12.5">
+      <c r="A108"/>
+    </row>
+    <row r="120" spans="1:1" ht="12.5">
+      <c r="A120"/>
+    </row>
+    <row r="149" spans="1:1" ht="12.5">
+      <c r="A149"/>
+    </row>
+    <row r="183" spans="1:1" ht="12.5">
+      <c r="A183"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -8889,11 +8976,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98692880-D6B5-452D-B7E4-95EAF9839D38}">
   <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
@@ -8965,7 +9052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF07120-E0AA-43F8-9AAF-D9A9FEA95457}">
   <dimension ref="A1:T19"/>
   <sheetViews>
@@ -9397,7 +9484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -37097,7 +37184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B25466-8734-4765-B253-99DEBC906B8E}">
   <dimension ref="A1:I39"/>
   <sheetViews>
@@ -37115,30 +37202,30 @@
       <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="77" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="77" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="97"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
       <c r="A2" s="75">
         <v>1</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="12" t="s">
         <v>37</v>
       </c>
@@ -37151,9 +37238,9 @@
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
       <c r="A3" s="75"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="9" t="s">
         <v>35</v>
       </c>
@@ -37162,9 +37249,9 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="75"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
@@ -37173,9 +37260,9 @@
     </row>
     <row r="5" spans="1:9" ht="14.5" thickBot="1">
       <c r="A5" s="75"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -37183,14 +37270,14 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="74">
+      <c r="A6" s="82">
         <v>2</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="9" t="s">
         <v>37</v>
       </c>
@@ -37202,9 +37289,9 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="75"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="9" t="s">
         <v>36</v>
       </c>
@@ -37213,9 +37300,9 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="75"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="9" t="s">
         <v>35</v>
       </c>
@@ -37224,9 +37311,9 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="75"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="9" t="s">
         <v>34</v>
       </c>
@@ -37235,9 +37322,9 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="75"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="9" t="s">
         <v>33</v>
       </c>
@@ -37246,9 +37333,9 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="75"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="9" t="s">
         <v>32</v>
       </c>
@@ -37257,9 +37344,9 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="75"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="9" t="s">
         <v>31</v>
       </c>
@@ -37268,9 +37355,9 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="75"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="9" t="s">
         <v>30</v>
       </c>
@@ -37278,10 +37365,10 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="14.5" thickBot="1">
-      <c r="A14" s="76"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
       <c r="E14" s="6" t="s">
         <v>29</v>
       </c>
@@ -37294,11 +37381,11 @@
       <c r="A15" s="16">
         <v>3</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="15" t="s">
         <v>115</v>
       </c>
@@ -37310,14 +37397,14 @@
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="74">
+      <c r="A16" s="82">
         <v>4</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="12" t="s">
         <v>44</v>
       </c>
@@ -37330,9 +37417,9 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="75"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="91"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="9" t="s">
         <v>43</v>
       </c>
@@ -37341,9 +37428,9 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="75"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="9" t="s">
         <v>42</v>
       </c>
@@ -37352,9 +37439,9 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="75"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
       <c r="E19" s="9" t="s">
         <v>37</v>
       </c>
@@ -37363,9 +37450,9 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="75"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="9" t="s">
         <v>35</v>
       </c>
@@ -37374,9 +37461,9 @@
     </row>
     <row r="21" spans="1:9" ht="14.5" thickBot="1">
       <c r="A21" s="75"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="6" t="s">
         <v>39</v>
       </c>
@@ -37386,14 +37473,14 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="74">
+      <c r="A22" s="82">
         <v>5</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
       <c r="E22" s="12" t="s">
         <v>40</v>
       </c>
@@ -37406,9 +37493,9 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="75"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="94"/>
       <c r="E23" s="9" t="s">
         <v>37</v>
       </c>
@@ -37417,9 +37504,9 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="75"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="94"/>
       <c r="E24" s="9" t="s">
         <v>35</v>
       </c>
@@ -37427,10 +37514,10 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" ht="14.5" thickBot="1">
-      <c r="A25" s="76"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="97"/>
       <c r="E25" s="6" t="s">
         <v>39</v>
       </c>
@@ -37440,14 +37527,14 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="74">
+      <c r="A26" s="82">
         <v>6</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="12" t="s">
         <v>37</v>
       </c>
@@ -37460,9 +37547,9 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="75"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94"/>
       <c r="E27" s="9" t="s">
         <v>36</v>
       </c>
@@ -37471,9 +37558,9 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="75"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
       <c r="E28" s="9" t="s">
         <v>35</v>
       </c>
@@ -37482,9 +37569,9 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="75"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="94"/>
       <c r="E29" s="9" t="s">
         <v>34</v>
       </c>
@@ -37493,9 +37580,9 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="75"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
       <c r="E30" s="9" t="s">
         <v>33</v>
       </c>
@@ -37504,9 +37591,9 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="75"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="91"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="94"/>
       <c r="E31" s="9" t="s">
         <v>32</v>
       </c>
@@ -37515,9 +37602,9 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="75"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="91"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
       <c r="E32" s="9" t="s">
         <v>31</v>
       </c>
@@ -37526,9 +37613,9 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="75"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="9" t="s">
         <v>30</v>
       </c>
@@ -37536,10 +37623,10 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" ht="14.5" thickBot="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="94"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
       <c r="E34" s="6" t="s">
         <v>29</v>
       </c>
@@ -37552,11 +37639,11 @@
       <c r="A35" s="7">
         <v>7</v>
       </c>
-      <c r="B35" s="92" t="s">
+      <c r="B35" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="94"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="97"/>
       <c r="E35" s="9" t="s">
         <v>27</v>
       </c>
@@ -37567,14 +37654,14 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="74">
+      <c r="A36" s="82">
         <v>8</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
       <c r="E36" s="31" t="s">
         <v>114</v>
       </c>
@@ -37587,9 +37674,9 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="75"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="9" t="s">
         <v>37</v>
       </c>
@@ -37600,9 +37687,9 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="75"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="9" t="s">
         <v>35</v>
       </c>
@@ -37612,10 +37699,10 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" ht="14.5" thickBot="1">
-      <c r="A39" s="76"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
       <c r="E39" s="6" t="s">
         <v>39</v>
       </c>
@@ -37626,11 +37713,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:A5"/>
     <mergeCell ref="B36:D39"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B6:D14"/>
@@ -37643,6 +37725,11 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A34"/>
     <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B2:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37650,6 +37737,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
+      <UserInfo>
+        <DisplayName>研修チーム メンバー</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002B575DD8F27F34448B33AFE63EFD0D8E" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="447f3c5e171231ac661ee31e3c4c8623">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0407f581-f061-4023-8230-a56bb2488a70" xmlns:ns3="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="879a67eca8ddb0358c74d00117cdcdbc" ns2:_="" ns3:_="">
     <xsd:import namespace="0407f581-f061-4023-8230-a56bb2488a70"/>
@@ -37854,33 +37967,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83112BE9-048B-4121-9CFF-7A7490EAA051}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
+    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
-      <UserInfo>
-        <DisplayName>研修チーム メンバー</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0D077A-C71E-4E8A-9969-E7DE2BA52760}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B611FAF-B46B-4C4A-ADD1-C3CCB9113822}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37897,23 +38003,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0D077A-C71E-4E8A-9969-E7DE2BA52760}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83112BE9-048B-4121-9CFF-7A7490EAA051}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
-    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>